--- a/Code/Results/Cases/Case_3_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.270826615079159</v>
+        <v>0.8494554131357859</v>
       </c>
       <c r="C2">
-        <v>0.6957970245801164</v>
+        <v>0.2321382534920531</v>
       </c>
       <c r="D2">
-        <v>0.1150324425181495</v>
+        <v>0.2214068020382598</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.097155785757721</v>
+        <v>1.501654300016142</v>
       </c>
       <c r="G2">
-        <v>0.805625869858801</v>
+        <v>0.8614496656753516</v>
       </c>
       <c r="H2">
-        <v>0.5082131226772475</v>
+        <v>0.8890446733713873</v>
       </c>
       <c r="I2">
-        <v>0.3636244612522219</v>
+        <v>0.6420947543634981</v>
       </c>
       <c r="J2">
-        <v>0.1359658435370505</v>
+        <v>0.2547594434794576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.7456905860000873</v>
+        <v>0.4393645854472794</v>
       </c>
       <c r="N2">
-        <v>0.6331657623561799</v>
+        <v>1.25749254344748</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.969018916587657</v>
+        <v>0.7631781101640343</v>
       </c>
       <c r="C3">
-        <v>0.6027624533621747</v>
+        <v>0.205584274731109</v>
       </c>
       <c r="D3">
-        <v>0.1064948839488125</v>
+        <v>0.2201062118342776</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0133888565002</v>
+        <v>1.49282660655598</v>
       </c>
       <c r="G3">
-        <v>0.7327174824260965</v>
+        <v>0.8508640101280349</v>
       </c>
       <c r="H3">
-        <v>0.4818788259118634</v>
+        <v>0.8895383111857882</v>
       </c>
       <c r="I3">
-        <v>0.3511794137918045</v>
+        <v>0.6450442097021565</v>
       </c>
       <c r="J3">
-        <v>0.1288493112680342</v>
+        <v>0.2548074062483963</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.6497376526504937</v>
+        <v>0.4145007313208211</v>
       </c>
       <c r="N3">
-        <v>0.6730590485164623</v>
+        <v>1.273565970302339</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.784650188272138</v>
+        <v>0.7103582971338653</v>
       </c>
       <c r="C4">
-        <v>0.5460012278557542</v>
+        <v>0.1893067507571686</v>
       </c>
       <c r="D4">
-        <v>0.1013455793829365</v>
+        <v>0.2193745584009861</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9642678478381299</v>
+        <v>1.488372364086359</v>
       </c>
       <c r="G4">
-        <v>0.6898811675282843</v>
+        <v>0.845040689415768</v>
       </c>
       <c r="H4">
-        <v>0.4668138962102972</v>
+        <v>0.89035154534659</v>
       </c>
       <c r="I4">
-        <v>0.3445714195286129</v>
+        <v>0.6472900650962927</v>
       </c>
       <c r="J4">
-        <v>0.1247271739464111</v>
+        <v>0.2549627622075974</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5913596701010988</v>
+        <v>0.39941871973069</v>
       </c>
       <c r="N4">
-        <v>0.698707650462234</v>
+        <v>1.283958416442207</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.709711448765972</v>
+        <v>0.6888733468423993</v>
       </c>
       <c r="C5">
-        <v>0.5229450664791671</v>
+        <v>0.1826802941865253</v>
       </c>
       <c r="D5">
-        <v>0.09926910244000453</v>
+        <v>0.2190932877501126</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9447900116244341</v>
+        <v>1.486799738988438</v>
       </c>
       <c r="G5">
-        <v>0.6728716255155831</v>
+        <v>0.8428371493653373</v>
       </c>
       <c r="H5">
-        <v>0.4609347553023468</v>
+        <v>0.8908110888470731</v>
       </c>
       <c r="I5">
-        <v>0.3421222328106346</v>
+        <v>0.6483143871300321</v>
       </c>
       <c r="J5">
-        <v>0.123105744691145</v>
+        <v>0.2550577152243747</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.5676882149593467</v>
+        <v>0.3933192205790874</v>
       </c>
       <c r="N5">
-        <v>0.709440431809389</v>
+        <v>1.288324933042302</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.697278355307617</v>
+        <v>0.6853081947205339</v>
       </c>
       <c r="C6">
-        <v>0.5191206432041326</v>
+        <v>0.1815803862368739</v>
       </c>
       <c r="D6">
-        <v>0.09892558813791652</v>
+        <v>0.2190476044403411</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9415871277488748</v>
+        <v>1.486553241675864</v>
       </c>
       <c r="G6">
-        <v>0.6700730929070886</v>
+        <v>0.8424814750574683</v>
       </c>
       <c r="H6">
-        <v>0.459973729142078</v>
+        <v>0.8908951313812707</v>
       </c>
       <c r="I6">
-        <v>0.3417298059831921</v>
+        <v>0.6484910585826036</v>
       </c>
       <c r="J6">
-        <v>0.1228399253031611</v>
+        <v>0.2550753928745948</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.5637642381938477</v>
+        <v>0.392309218965444</v>
       </c>
       <c r="N6">
-        <v>0.7112392957167479</v>
+        <v>1.289057930533561</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.783638812736825</v>
+        <v>0.7100683825997578</v>
       </c>
       <c r="C7">
-        <v>0.5456900039202139</v>
+        <v>0.1892173565840665</v>
       </c>
       <c r="D7">
-        <v>0.1013174884097765</v>
+        <v>0.2193706966464433</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9640030327323785</v>
+        <v>1.488350173705257</v>
       </c>
       <c r="G7">
-        <v>0.6896500119598556</v>
+        <v>0.8450102860991819</v>
       </c>
       <c r="H7">
-        <v>0.4667335782693698</v>
+        <v>0.8903572242434876</v>
       </c>
       <c r="I7">
-        <v>0.3445374232285374</v>
+        <v>0.647303437963199</v>
       </c>
       <c r="J7">
-        <v>0.1247050753379071</v>
+        <v>0.2549639146723308</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5910399724325259</v>
+        <v>0.3993362711003101</v>
       </c>
       <c r="N7">
-        <v>0.6988512716845054</v>
+        <v>1.284016772435688</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.166540262875458</v>
+        <v>0.8196752175433062</v>
       </c>
       <c r="C8">
-        <v>0.6636331072261328</v>
+        <v>0.2229769134956427</v>
       </c>
       <c r="D8">
-        <v>0.1120685437411311</v>
+        <v>0.220944504388477</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.067766894583798</v>
+        <v>1.498409774300526</v>
       </c>
       <c r="G8">
-        <v>0.7800625116750837</v>
+        <v>0.8576590226554401</v>
       </c>
       <c r="H8">
-        <v>0.4988927744248599</v>
+        <v>0.8891089166934449</v>
       </c>
       <c r="I8">
-        <v>0.359108874496826</v>
+        <v>0.6430213244354661</v>
       </c>
       <c r="J8">
-        <v>0.1334583150177053</v>
+        <v>0.2547498387192846</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.7124837789539455</v>
+        <v>0.4307533175213365</v>
       </c>
       <c r="N8">
-        <v>0.6466756249096317</v>
+        <v>1.262926005174361</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.927058343048145</v>
+        <v>1.035825911909797</v>
       </c>
       <c r="C9">
-        <v>0.8986150921116405</v>
+        <v>0.2893928073038694</v>
       </c>
       <c r="D9">
-        <v>0.1339578341516443</v>
+        <v>0.2245594539516134</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.291638879105491</v>
+        <v>1.525822434980782</v>
       </c>
       <c r="G9">
-        <v>0.9745513340955654</v>
+        <v>0.887857070102342</v>
       </c>
       <c r="H9">
-        <v>0.5715844039615234</v>
+        <v>0.890715963792104</v>
       </c>
       <c r="I9">
-        <v>0.3966673920950328</v>
+        <v>0.6380858909595943</v>
       </c>
       <c r="J9">
-        <v>0.1527737186624663</v>
+        <v>0.2553300894400294</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.9557415385685459</v>
+        <v>0.4938229642146439</v>
       </c>
       <c r="N9">
-        <v>0.5539674082742749</v>
+        <v>1.225722161012314</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.495017788750488</v>
+        <v>1.195365574067637</v>
       </c>
       <c r="C10">
-        <v>1.074766322264708</v>
+        <v>0.3383258001064178</v>
       </c>
       <c r="D10">
-        <v>0.1506386815270702</v>
+        <v>0.2275351832131349</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.471636307808382</v>
+        <v>1.550681970061206</v>
       </c>
       <c r="G10">
-        <v>1.130758423449549</v>
+        <v>0.9133739650067128</v>
       </c>
       <c r="H10">
-        <v>0.6321653315769993</v>
+        <v>0.8943804402793774</v>
       </c>
       <c r="I10">
-        <v>0.4309193756194958</v>
+        <v>0.6365865838166656</v>
       </c>
       <c r="J10">
-        <v>0.1685578538411932</v>
+        <v>0.2563679577723406</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.138860510829879</v>
+        <v>0.5410522133683884</v>
       </c>
       <c r="N10">
-        <v>0.4923862996362516</v>
+        <v>1.200924912900362</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.756214917439422</v>
+        <v>1.268103655378525</v>
       </c>
       <c r="C11">
-        <v>1.155975290715162</v>
+        <v>0.3606183352541734</v>
       </c>
       <c r="D11">
-        <v>0.1583834871319141</v>
+        <v>0.2289578744912717</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.557648399261865</v>
+        <v>1.56302366878235</v>
       </c>
       <c r="G11">
-        <v>1.205408384415136</v>
+        <v>0.9257147510579102</v>
       </c>
       <c r="H11">
-        <v>0.6616033753440718</v>
+        <v>0.8965895110360407</v>
       </c>
       <c r="I11">
-        <v>0.4482361553380159</v>
+        <v>0.6363699144211026</v>
       </c>
       <c r="J11">
-        <v>0.1761535164199017</v>
+        <v>0.2569733526864368</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.223436794201191</v>
+        <v>0.5627323655541971</v>
       </c>
       <c r="N11">
-        <v>0.4659546698788262</v>
+        <v>1.190195547516073</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.85560478887993</v>
+        <v>1.295670699040443</v>
       </c>
       <c r="C12">
-        <v>1.186910405691378</v>
+        <v>0.3690646756544993</v>
       </c>
       <c r="D12">
-        <v>0.1613411376724088</v>
+        <v>0.2295064851542605</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.590882415857195</v>
+        <v>1.567846222949484</v>
       </c>
       <c r="G12">
-        <v>1.234256712847696</v>
+        <v>0.9304939744981766</v>
       </c>
       <c r="H12">
-        <v>0.6730505647139751</v>
+        <v>0.8975041705814988</v>
       </c>
       <c r="I12">
-        <v>0.4550697223805855</v>
+        <v>0.6363550693918327</v>
       </c>
       <c r="J12">
-        <v>0.1790958718209268</v>
+        <v>0.2572217924542031</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.25567570491458</v>
+        <v>0.5709701013507242</v>
       </c>
       <c r="N12">
-        <v>0.4561885285669085</v>
+        <v>1.186211958902735</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.834176802572529</v>
+        <v>1.289732643697789</v>
       </c>
       <c r="C13">
-        <v>1.180239355279809</v>
+        <v>0.3672453995968681</v>
       </c>
       <c r="D13">
-        <v>0.1607030094447452</v>
+        <v>0.229387894025848</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.583694212897242</v>
+        <v>1.5668009641971</v>
       </c>
       <c r="G13">
-        <v>1.228016834290088</v>
+        <v>0.9294599572364746</v>
       </c>
       <c r="H13">
-        <v>0.6705713833788991</v>
+        <v>0.8973037044094667</v>
       </c>
       <c r="I13">
-        <v>0.453585263799539</v>
+        <v>0.6363552731451563</v>
       </c>
       <c r="J13">
-        <v>0.1784591388568089</v>
+        <v>0.2571674326003048</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.248722581088145</v>
+        <v>0.569194717696206</v>
       </c>
       <c r="N13">
-        <v>0.4582807756359983</v>
+        <v>1.187066362650647</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.76438171337378</v>
+        <v>1.270371161385981</v>
       </c>
       <c r="C14">
-        <v>1.158516501327711</v>
+        <v>0.3613131280659445</v>
       </c>
       <c r="D14">
-        <v>0.1586263024026238</v>
+        <v>0.2290028115650244</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.560368872875856</v>
+        <v>1.563417433854781</v>
       </c>
       <c r="G14">
-        <v>1.207769743243091</v>
+        <v>0.9261058119315919</v>
       </c>
       <c r="H14">
-        <v>0.6625389590578834</v>
+        <v>0.8966631936907561</v>
       </c>
       <c r="I14">
-        <v>0.4487926632135739</v>
+        <v>0.6363673446392397</v>
       </c>
       <c r="J14">
-        <v>0.1763942239260388</v>
+        <v>0.2569934072278102</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.226084693338947</v>
+        <v>0.5634095301071085</v>
       </c>
       <c r="N14">
-        <v>0.4651462410518867</v>
+        <v>1.18986622331585</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.721695035574669</v>
+        <v>1.258514631858759</v>
       </c>
       <c r="C15">
-        <v>1.145235347832624</v>
+        <v>0.3576800432186928</v>
       </c>
       <c r="D15">
-        <v>0.1573575700985828</v>
+        <v>0.228768220927023</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.546169947561197</v>
+        <v>1.561364345037646</v>
       </c>
       <c r="G15">
-        <v>1.195445342191277</v>
+        <v>0.9240651287175012</v>
       </c>
       <c r="H15">
-        <v>0.6576588085412993</v>
+        <v>0.8962810429482033</v>
       </c>
       <c r="I15">
-        <v>0.4458938399535413</v>
+        <v>0.6363834990056603</v>
       </c>
       <c r="J15">
-        <v>0.1751382019419907</v>
+        <v>0.2568893115496707</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.212246793887971</v>
+        <v>0.5598695687435367</v>
       </c>
       <c r="N15">
-        <v>0.4693836579865724</v>
+        <v>1.19159156223888</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.478010988984011</v>
+        <v>1.19061518453907</v>
       </c>
       <c r="C16">
-        <v>1.069483141502133</v>
+        <v>0.3368695830299941</v>
       </c>
       <c r="D16">
-        <v>0.1501358869043088</v>
+        <v>0.2274435909777992</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.466104096129769</v>
+        <v>1.549896238068172</v>
       </c>
       <c r="G16">
-        <v>1.125957434386464</v>
+        <v>0.9125822695250463</v>
       </c>
       <c r="H16">
-        <v>0.6302817549608051</v>
+        <v>0.8942469958711854</v>
       </c>
       <c r="I16">
-        <v>0.4298248167138397</v>
+        <v>0.6366101323192694</v>
       </c>
       <c r="J16">
-        <v>0.1680703443777531</v>
+        <v>0.2563310776658412</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.133361268668864</v>
+        <v>0.539639281633626</v>
       </c>
       <c r="N16">
-        <v>0.4941467919264468</v>
+        <v>1.201637203125262</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.329293443074789</v>
+        <v>1.149002253166998</v>
       </c>
       <c r="C17">
-        <v>1.023306629453515</v>
+        <v>0.3241113665854414</v>
       </c>
       <c r="D17">
-        <v>0.1457473287619422</v>
+        <v>0.2266486102154772</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.418091403971857</v>
+        <v>1.543125835687732</v>
       </c>
       <c r="G17">
-        <v>1.084291965047584</v>
+        <v>0.9057260980696213</v>
       </c>
       <c r="H17">
-        <v>0.6139882498075053</v>
+        <v>0.893138142742032</v>
       </c>
       <c r="I17">
-        <v>0.4204295905617244</v>
+        <v>0.6368685585922904</v>
       </c>
       <c r="J17">
-        <v>0.1638451432668546</v>
+        <v>0.2560227700813229</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.085313396611646</v>
+        <v>0.5272785731395615</v>
       </c>
       <c r="N17">
-        <v>0.5097539179369157</v>
+        <v>1.207941116330762</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.24401659172662</v>
+        <v>1.125082949196553</v>
       </c>
       <c r="C18">
-        <v>0.996846638840907</v>
+        <v>0.3167762564076781</v>
       </c>
       <c r="D18">
-        <v>0.1432377343891886</v>
+        <v>0.2261978578617487</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.390860040060673</v>
+        <v>1.539328878527513</v>
       </c>
       <c r="G18">
-        <v>1.060660903021002</v>
+        <v>0.901851567470473</v>
       </c>
       <c r="H18">
-        <v>0.6047916482802123</v>
+        <v>0.8925513720798648</v>
       </c>
       <c r="I18">
-        <v>0.4151873215694692</v>
+        <v>0.6370609846511712</v>
       </c>
       <c r="J18">
-        <v>0.1614536063198813</v>
+        <v>0.2558579814670239</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.057795644287857</v>
+        <v>0.5201874150879959</v>
       </c>
       <c r="N18">
-        <v>0.5188786183706533</v>
+        <v>1.211618816311553</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.215186113836467</v>
+        <v>1.11698694177079</v>
       </c>
       <c r="C19">
-        <v>0.9879040187140617</v>
+        <v>0.3142932446291127</v>
       </c>
       <c r="D19">
-        <v>0.1423904664472673</v>
+        <v>0.2260463588835506</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.381703961702684</v>
+        <v>1.538059973547149</v>
       </c>
       <c r="G19">
-        <v>1.052715319016471</v>
+        <v>0.9005515424742896</v>
       </c>
       <c r="H19">
-        <v>0.6017070410349419</v>
+        <v>0.8923614575350314</v>
       </c>
       <c r="I19">
-        <v>0.4134393677467543</v>
+        <v>0.6371336485184145</v>
       </c>
       <c r="J19">
-        <v>0.1606503345078139</v>
+        <v>0.2558043401254011</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.048498068837425</v>
+        <v>0.5177896348660056</v>
       </c>
       <c r="N19">
-        <v>0.521993037095509</v>
+        <v>1.212872924079196</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.345097101453973</v>
+        <v>1.153430436688723</v>
       </c>
       <c r="C20">
-        <v>1.028211702899682</v>
+        <v>0.3254691823160556</v>
       </c>
       <c r="D20">
-        <v>0.1462129721539895</v>
+        <v>0.2267325650042693</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.423162186137546</v>
+        <v>1.543836493347797</v>
       </c>
       <c r="G20">
-        <v>1.088692334362833</v>
+        <v>0.9064488077996202</v>
       </c>
       <c r="H20">
-        <v>0.6157044061796171</v>
+        <v>0.8932509011509353</v>
       </c>
       <c r="I20">
-        <v>0.4214128172220057</v>
+        <v>0.6368365149284401</v>
       </c>
       <c r="J20">
-        <v>0.1642908752957339</v>
+        <v>0.2560542917338609</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.090415752905464</v>
+        <v>0.5285924890273535</v>
       </c>
       <c r="N20">
-        <v>0.5080770985724428</v>
+        <v>1.207264686032207</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.784868571638128</v>
+        <v>1.276057487120852</v>
       </c>
       <c r="C21">
-        <v>1.164891823773587</v>
+        <v>0.3630554545006817</v>
       </c>
       <c r="D21">
-        <v>0.1592355871658242</v>
+        <v>0.229115652240182</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.567201510678672</v>
+        <v>1.564407210508008</v>
       </c>
       <c r="G21">
-        <v>1.21370052589694</v>
+        <v>0.9270881229238057</v>
       </c>
       <c r="H21">
-        <v>0.6648898966587922</v>
+        <v>0.8968492052668182</v>
       </c>
       <c r="I21">
-        <v>0.4501926497688302</v>
+        <v>0.6363619728183991</v>
       </c>
       <c r="J21">
-        <v>0.176998893890449</v>
+        <v>0.2570440016753039</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.232728003979645</v>
+        <v>0.5651080230815495</v>
       </c>
       <c r="N21">
-        <v>0.4631229638395133</v>
+        <v>1.189041680530046</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.075122771664326</v>
+        <v>1.356333416819552</v>
       </c>
       <c r="C22">
-        <v>1.255302259723749</v>
+        <v>0.3876472831919386</v>
       </c>
       <c r="D22">
-        <v>0.1678927709097451</v>
+        <v>0.230730632018961</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.665241530670713</v>
+        <v>1.578720195453499</v>
       </c>
       <c r="G22">
-        <v>1.298815362657194</v>
+        <v>0.9411954579597932</v>
       </c>
       <c r="H22">
-        <v>0.6987976942875491</v>
+        <v>0.8996564060733192</v>
       </c>
       <c r="I22">
-        <v>0.4706252730393672</v>
+        <v>0.6364436746487669</v>
       </c>
       <c r="J22">
-        <v>0.1856926311434108</v>
+        <v>0.2578027002478649</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.326986483655645</v>
+        <v>0.5891357777906165</v>
       </c>
       <c r="N22">
-        <v>0.4351671069275156</v>
+        <v>1.177594708302085</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.919922861098883</v>
+        <v>1.31347678287085</v>
       </c>
       <c r="C23">
-        <v>1.206939433326568</v>
+        <v>0.3745197067743788</v>
       </c>
       <c r="D23">
-        <v>0.1632580656005445</v>
+        <v>0.2298634446371892</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.612534108313184</v>
+        <v>1.571001428169737</v>
       </c>
       <c r="G23">
-        <v>1.253052871321074</v>
+        <v>0.9336093207320175</v>
       </c>
       <c r="H23">
-        <v>0.6805287707278183</v>
+        <v>0.8981164112804834</v>
       </c>
       <c r="I23">
-        <v>0.4595620369452291</v>
+        <v>0.6363641214246485</v>
       </c>
       <c r="J23">
-        <v>0.1810148472964528</v>
+        <v>0.2573875238375507</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.276554541251883</v>
+        <v>0.5762968728316054</v>
       </c>
       <c r="N23">
-        <v>0.4499518716229645</v>
+        <v>1.183661773567771</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.337951578837306</v>
+        <v>1.151428440775021</v>
       </c>
       <c r="C24">
-        <v>1.025993848743042</v>
+        <v>0.3248553145774338</v>
       </c>
       <c r="D24">
-        <v>0.1460024130688424</v>
+        <v>0.226694589440342</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.420868532681823</v>
+        <v>1.543514907767005</v>
       </c>
       <c r="G24">
-        <v>1.086701926152926</v>
+        <v>0.9061218615332081</v>
       </c>
       <c r="H24">
-        <v>0.6149280022171979</v>
+        <v>0.8931997650781511</v>
       </c>
       <c r="I24">
-        <v>0.4209678066405758</v>
+        <v>0.6368508652843303</v>
       </c>
       <c r="J24">
-        <v>0.164089243239026</v>
+        <v>0.2560400019806295</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.088108650791213</v>
+        <v>0.5279984203667212</v>
       </c>
       <c r="N24">
-        <v>0.5088347164514033</v>
+        <v>1.207570333534086</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.719958683042989</v>
+        <v>0.9772222197728411</v>
       </c>
       <c r="C25">
-        <v>0.834527458059398</v>
+        <v>0.2714019660237454</v>
       </c>
       <c r="D25">
-        <v>0.1279393225529617</v>
+        <v>0.2235251708492143</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.228589135507221</v>
+        <v>1.517580264919218</v>
       </c>
       <c r="G25">
-        <v>0.9198179756250937</v>
+        <v>0.8791058973163075</v>
       </c>
       <c r="H25">
-        <v>0.5507605166732361</v>
+        <v>0.889845893924516</v>
       </c>
       <c r="I25">
-        <v>0.3854289332057022</v>
+        <v>0.6390487628059915</v>
       </c>
       <c r="J25">
-        <v>0.1472904426638948</v>
+        <v>0.2550658592425705</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.8892610442214774</v>
+        <v>0.476604418955823</v>
       </c>
       <c r="N25">
-        <v>0.5779526121411074</v>
+        <v>1.235341628552749</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_85/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_85/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8494554131357859</v>
+        <v>2.270826615079102</v>
       </c>
       <c r="C2">
-        <v>0.2321382534920531</v>
+        <v>0.6957970245799459</v>
       </c>
       <c r="D2">
-        <v>0.2214068020382598</v>
+        <v>0.1150324425181921</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.501654300016142</v>
+        <v>1.097155785757707</v>
       </c>
       <c r="G2">
-        <v>0.8614496656753516</v>
+        <v>0.8056258698587726</v>
       </c>
       <c r="H2">
-        <v>0.8890446733713873</v>
+        <v>0.5082131226772333</v>
       </c>
       <c r="I2">
-        <v>0.6420947543634981</v>
+        <v>0.3636244612522219</v>
       </c>
       <c r="J2">
-        <v>0.2547594434794576</v>
+        <v>0.1359658435370292</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.4393645854472794</v>
+        <v>0.7456905860000802</v>
       </c>
       <c r="N2">
-        <v>1.25749254344748</v>
+        <v>0.6331657623561657</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7631781101640343</v>
+        <v>1.969018916587686</v>
       </c>
       <c r="C3">
-        <v>0.205584274731109</v>
+        <v>0.6027624533621463</v>
       </c>
       <c r="D3">
-        <v>0.2201062118342776</v>
+        <v>0.1064948839486775</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.49282660655598</v>
+        <v>1.013388856500171</v>
       </c>
       <c r="G3">
-        <v>0.8508640101280349</v>
+        <v>0.7327174824261107</v>
       </c>
       <c r="H3">
-        <v>0.8895383111857882</v>
+        <v>0.4818788259118634</v>
       </c>
       <c r="I3">
-        <v>0.6450442097021565</v>
+        <v>0.3511794137918045</v>
       </c>
       <c r="J3">
-        <v>0.2548074062483963</v>
+        <v>0.1288493112680271</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.4145007313208211</v>
+        <v>0.6497376526504937</v>
       </c>
       <c r="N3">
-        <v>1.273565970302339</v>
+        <v>0.6730590485165102</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7103582971338653</v>
+        <v>1.784650188271996</v>
       </c>
       <c r="C4">
-        <v>0.1893067507571686</v>
+        <v>0.5460012278559248</v>
       </c>
       <c r="D4">
-        <v>0.2193745584009861</v>
+        <v>0.1013455793832421</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.488372364086359</v>
+        <v>0.9642678478381299</v>
       </c>
       <c r="G4">
-        <v>0.845040689415768</v>
+        <v>0.6898811675282985</v>
       </c>
       <c r="H4">
-        <v>0.89035154534659</v>
+        <v>0.4668138962101835</v>
       </c>
       <c r="I4">
-        <v>0.6472900650962927</v>
+        <v>0.3445714195286236</v>
       </c>
       <c r="J4">
-        <v>0.2549627622075974</v>
+        <v>0.1247271739463827</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.39941871973069</v>
+        <v>0.591359670101113</v>
       </c>
       <c r="N4">
-        <v>1.283958416442207</v>
+        <v>0.6987076504622181</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6888733468423993</v>
+        <v>1.709711448765916</v>
       </c>
       <c r="C5">
-        <v>0.1826802941865253</v>
+        <v>0.5229450664791955</v>
       </c>
       <c r="D5">
-        <v>0.2190932877501126</v>
+        <v>0.09926910244007559</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.486799738988438</v>
+        <v>0.9447900116244341</v>
       </c>
       <c r="G5">
-        <v>0.8428371493653373</v>
+        <v>0.6728716255156115</v>
       </c>
       <c r="H5">
-        <v>0.8908110888470731</v>
+        <v>0.4609347553022189</v>
       </c>
       <c r="I5">
-        <v>0.6483143871300321</v>
+        <v>0.3421222328106488</v>
       </c>
       <c r="J5">
-        <v>0.2550577152243747</v>
+        <v>0.1231057446911308</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3933192205790874</v>
+        <v>0.5676882149593467</v>
       </c>
       <c r="N5">
-        <v>1.288324933042302</v>
+        <v>0.7094404318093162</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6853081947205339</v>
+        <v>1.697278355307731</v>
       </c>
       <c r="C6">
-        <v>0.1815803862368739</v>
+        <v>0.519120643204019</v>
       </c>
       <c r="D6">
-        <v>0.2190476044403411</v>
+        <v>0.09892558813798047</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.486553241675864</v>
+        <v>0.941587127748889</v>
       </c>
       <c r="G6">
-        <v>0.8424814750574683</v>
+        <v>0.6700730929070744</v>
       </c>
       <c r="H6">
-        <v>0.8908951313812707</v>
+        <v>0.4599737291420922</v>
       </c>
       <c r="I6">
-        <v>0.6484910585826036</v>
+        <v>0.3417298059831779</v>
       </c>
       <c r="J6">
-        <v>0.2550753928745948</v>
+        <v>0.1228399253031824</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.392309218965444</v>
+        <v>0.563764238193869</v>
       </c>
       <c r="N6">
-        <v>1.289057930533561</v>
+        <v>0.7112392957167426</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7100683825997578</v>
+        <v>1.78363881273674</v>
       </c>
       <c r="C7">
-        <v>0.1892173565840665</v>
+        <v>0.5456900039199581</v>
       </c>
       <c r="D7">
-        <v>0.2193706966464433</v>
+        <v>0.101317488409876</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.488350173705257</v>
+        <v>0.9640030327323785</v>
       </c>
       <c r="G7">
-        <v>0.8450102860991819</v>
+        <v>0.6896500119598556</v>
       </c>
       <c r="H7">
-        <v>0.8903572242434876</v>
+        <v>0.4667335782693982</v>
       </c>
       <c r="I7">
-        <v>0.647303437963199</v>
+        <v>0.3445374232285516</v>
       </c>
       <c r="J7">
-        <v>0.2549639146723308</v>
+        <v>0.1247050753379639</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3993362711003101</v>
+        <v>0.591039972432533</v>
       </c>
       <c r="N7">
-        <v>1.284016772435688</v>
+        <v>0.6988512716844895</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8196752175433062</v>
+        <v>2.166540262875458</v>
       </c>
       <c r="C8">
-        <v>0.2229769134956427</v>
+        <v>0.663633107226218</v>
       </c>
       <c r="D8">
-        <v>0.220944504388477</v>
+        <v>0.1120685437410032</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.498409774300526</v>
+        <v>1.067766894583784</v>
       </c>
       <c r="G8">
-        <v>0.8576590226554401</v>
+        <v>0.7800625116751405</v>
       </c>
       <c r="H8">
-        <v>0.8891089166934449</v>
+        <v>0.4988927744249736</v>
       </c>
       <c r="I8">
-        <v>0.6430213244354661</v>
+        <v>0.359108874496826</v>
       </c>
       <c r="J8">
-        <v>0.2547498387192846</v>
+        <v>0.1334583150176911</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.4307533175213365</v>
+        <v>0.7124837789539242</v>
       </c>
       <c r="N8">
-        <v>1.262926005174361</v>
+        <v>0.646675624909669</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.035825911909797</v>
+        <v>2.927058343047975</v>
       </c>
       <c r="C9">
-        <v>0.2893928073038694</v>
+        <v>0.8986150921116121</v>
       </c>
       <c r="D9">
-        <v>0.2245594539516134</v>
+        <v>0.1339578341518433</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.525822434980782</v>
+        <v>1.291638879105463</v>
       </c>
       <c r="G9">
-        <v>0.887857070102342</v>
+        <v>0.9745513340955938</v>
       </c>
       <c r="H9">
-        <v>0.890715963792104</v>
+        <v>0.5715844039615092</v>
       </c>
       <c r="I9">
-        <v>0.6380858909595943</v>
+        <v>0.3966673920950399</v>
       </c>
       <c r="J9">
-        <v>0.2553300894400294</v>
+        <v>0.1527737186624805</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.4938229642146439</v>
+        <v>0.9557415385685317</v>
       </c>
       <c r="N9">
-        <v>1.225722161012314</v>
+        <v>0.5539674082742714</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.195365574067637</v>
+        <v>3.495017788750658</v>
       </c>
       <c r="C10">
-        <v>0.3383258001064178</v>
+        <v>1.074766322264708</v>
       </c>
       <c r="D10">
-        <v>0.2275351832131349</v>
+        <v>0.1506386815271981</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.550681970061206</v>
+        <v>1.471636307808396</v>
       </c>
       <c r="G10">
-        <v>0.9133739650067128</v>
+        <v>1.130758423449493</v>
       </c>
       <c r="H10">
-        <v>0.8943804402793774</v>
+        <v>0.6321653315768856</v>
       </c>
       <c r="I10">
-        <v>0.6365865838166656</v>
+        <v>0.4309193756194887</v>
       </c>
       <c r="J10">
-        <v>0.2563679577723406</v>
+        <v>0.1685578538411505</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.5410522133683884</v>
+        <v>1.138860510829872</v>
       </c>
       <c r="N10">
-        <v>1.200924912900362</v>
+        <v>0.4923862996362445</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.268103655378525</v>
+        <v>3.756214917439308</v>
       </c>
       <c r="C11">
-        <v>0.3606183352541734</v>
+        <v>1.155975290715105</v>
       </c>
       <c r="D11">
-        <v>0.2289578744912717</v>
+        <v>0.1583834871318999</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.56302366878235</v>
+        <v>1.557648399261851</v>
       </c>
       <c r="G11">
-        <v>0.9257147510579102</v>
+        <v>1.205408384415193</v>
       </c>
       <c r="H11">
-        <v>0.8965895110360407</v>
+        <v>0.6616033753440718</v>
       </c>
       <c r="I11">
-        <v>0.6363699144211026</v>
+        <v>0.4482361553380017</v>
       </c>
       <c r="J11">
-        <v>0.2569733526864368</v>
+        <v>0.1761535164198946</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5627323655541971</v>
+        <v>1.223436794201177</v>
       </c>
       <c r="N11">
-        <v>1.190195547516073</v>
+        <v>0.4659546698788688</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.295670699040443</v>
+        <v>3.855604788879873</v>
       </c>
       <c r="C12">
-        <v>0.3690646756544993</v>
+        <v>1.186910405691492</v>
       </c>
       <c r="D12">
-        <v>0.2295064851542605</v>
+        <v>0.1613411376723946</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.567846222949484</v>
+        <v>1.590882415857195</v>
       </c>
       <c r="G12">
-        <v>0.9304939744981766</v>
+        <v>1.234256712847639</v>
       </c>
       <c r="H12">
-        <v>0.8975041705814988</v>
+        <v>0.6730505647139751</v>
       </c>
       <c r="I12">
-        <v>0.6363550693918327</v>
+        <v>0.4550697223805855</v>
       </c>
       <c r="J12">
-        <v>0.2572217924542031</v>
+        <v>0.1790958718209055</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5709701013507242</v>
+        <v>1.255675704914609</v>
       </c>
       <c r="N12">
-        <v>1.186211958902735</v>
+        <v>0.4561885285668907</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.289732643697789</v>
+        <v>3.834176802572529</v>
       </c>
       <c r="C13">
-        <v>0.3672453995968681</v>
+        <v>1.180239355279696</v>
       </c>
       <c r="D13">
-        <v>0.229387894025848</v>
+        <v>0.1607030094446174</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.5668009641971</v>
+        <v>1.583694212897285</v>
       </c>
       <c r="G13">
-        <v>0.9294599572364746</v>
+        <v>1.228016834290145</v>
       </c>
       <c r="H13">
-        <v>0.8973037044094667</v>
+        <v>0.6705713833788991</v>
       </c>
       <c r="I13">
-        <v>0.6363552731451563</v>
+        <v>0.4535852637995248</v>
       </c>
       <c r="J13">
-        <v>0.2571674326003048</v>
+        <v>0.1784591388568018</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.569194717696206</v>
+        <v>1.248722581088145</v>
       </c>
       <c r="N13">
-        <v>1.187066362650647</v>
+        <v>0.4582807756359841</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.270371161385981</v>
+        <v>3.764381713373837</v>
       </c>
       <c r="C14">
-        <v>0.3613131280659445</v>
+        <v>1.158516501327824</v>
       </c>
       <c r="D14">
-        <v>0.2290028115650244</v>
+        <v>0.1586263024027375</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.563417433854781</v>
+        <v>1.560368872875856</v>
       </c>
       <c r="G14">
-        <v>0.9261058119315919</v>
+        <v>1.207769743243063</v>
       </c>
       <c r="H14">
-        <v>0.8966631936907561</v>
+        <v>0.6625389590578834</v>
       </c>
       <c r="I14">
-        <v>0.6363673446392397</v>
+        <v>0.448792663213581</v>
       </c>
       <c r="J14">
-        <v>0.2569934072278102</v>
+        <v>0.176394223925918</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5634095301071085</v>
+        <v>1.226084693338962</v>
       </c>
       <c r="N14">
-        <v>1.18986622331585</v>
+        <v>0.4651462410518761</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.258514631858759</v>
+        <v>3.721695035574498</v>
       </c>
       <c r="C15">
-        <v>0.3576800432186928</v>
+        <v>1.145235347832681</v>
       </c>
       <c r="D15">
-        <v>0.228768220927023</v>
+        <v>0.1573575700986112</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.561364345037646</v>
+        <v>1.546169947561197</v>
       </c>
       <c r="G15">
-        <v>0.9240651287175012</v>
+        <v>1.195445342191277</v>
       </c>
       <c r="H15">
-        <v>0.8962810429482033</v>
+        <v>0.657658808541413</v>
       </c>
       <c r="I15">
-        <v>0.6363834990056603</v>
+        <v>0.4458938399535342</v>
       </c>
       <c r="J15">
-        <v>0.2568893115496707</v>
+        <v>0.1751382019420191</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5598695687435367</v>
+        <v>1.212246793887942</v>
       </c>
       <c r="N15">
-        <v>1.19159156223888</v>
+        <v>0.4693836579865547</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.19061518453907</v>
+        <v>3.478010988983897</v>
       </c>
       <c r="C16">
-        <v>0.3368695830299941</v>
+        <v>1.069483141501649</v>
       </c>
       <c r="D16">
-        <v>0.2274435909777992</v>
+        <v>0.1501358869043941</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.549896238068172</v>
+        <v>1.466104096129783</v>
       </c>
       <c r="G16">
-        <v>0.9125822695250463</v>
+        <v>1.125957434386493</v>
       </c>
       <c r="H16">
-        <v>0.8942469958711854</v>
+        <v>0.6302817549607767</v>
       </c>
       <c r="I16">
-        <v>0.6366101323192694</v>
+        <v>0.4298248167138183</v>
       </c>
       <c r="J16">
-        <v>0.2563310776658412</v>
+        <v>0.1680703443777318</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.539639281633626</v>
+        <v>1.133361268668878</v>
       </c>
       <c r="N16">
-        <v>1.201637203125262</v>
+        <v>0.4941467919264326</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.149002253166998</v>
+        <v>3.329293443074789</v>
       </c>
       <c r="C17">
-        <v>0.3241113665854414</v>
+        <v>1.023306629453714</v>
       </c>
       <c r="D17">
-        <v>0.2266486102154772</v>
+        <v>0.1457473287618143</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.543125835687732</v>
+        <v>1.418091403971857</v>
       </c>
       <c r="G17">
-        <v>0.9057260980696213</v>
+        <v>1.084291965047527</v>
       </c>
       <c r="H17">
-        <v>0.893138142742032</v>
+        <v>0.6139882498075053</v>
       </c>
       <c r="I17">
-        <v>0.6368685585922904</v>
+        <v>0.4204295905617315</v>
       </c>
       <c r="J17">
-        <v>0.2560227700813229</v>
+        <v>0.1638451432669257</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.5272785731395615</v>
+        <v>1.085313396611639</v>
       </c>
       <c r="N17">
-        <v>1.207941116330762</v>
+        <v>0.5097539179369122</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.125082949196553</v>
+        <v>3.24401659172662</v>
       </c>
       <c r="C18">
-        <v>0.3167762564076781</v>
+        <v>0.9968466388407364</v>
       </c>
       <c r="D18">
-        <v>0.2261978578617487</v>
+        <v>0.1432377343890749</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.539328878527513</v>
+        <v>1.390860040060687</v>
       </c>
       <c r="G18">
-        <v>0.901851567470473</v>
+        <v>1.060660903021031</v>
       </c>
       <c r="H18">
-        <v>0.8925513720798648</v>
+        <v>0.6047916482802123</v>
       </c>
       <c r="I18">
-        <v>0.6370609846511712</v>
+        <v>0.4151873215694408</v>
       </c>
       <c r="J18">
-        <v>0.2558579814670239</v>
+        <v>0.1614536063199594</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.5201874150879959</v>
+        <v>1.05779564428785</v>
       </c>
       <c r="N18">
-        <v>1.211618816311553</v>
+        <v>0.5188786183707101</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.11698694177079</v>
+        <v>3.21518611383658</v>
       </c>
       <c r="C19">
-        <v>0.3142932446291127</v>
+        <v>0.987904018714346</v>
       </c>
       <c r="D19">
-        <v>0.2260463588835506</v>
+        <v>0.142390466447182</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.538059973547149</v>
+        <v>1.381703961702669</v>
       </c>
       <c r="G19">
-        <v>0.9005515424742896</v>
+        <v>1.052715319016428</v>
       </c>
       <c r="H19">
-        <v>0.8923614575350314</v>
+        <v>0.6017070410349419</v>
       </c>
       <c r="I19">
-        <v>0.6371336485184145</v>
+        <v>0.4134393677467472</v>
       </c>
       <c r="J19">
-        <v>0.2558043401254011</v>
+        <v>0.1606503345078139</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.5177896348660056</v>
+        <v>1.048498068837411</v>
       </c>
       <c r="N19">
-        <v>1.212872924079196</v>
+        <v>0.521993037095573</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.153430436688723</v>
+        <v>3.345097101453916</v>
       </c>
       <c r="C20">
-        <v>0.3254691823160556</v>
+        <v>1.028211702899512</v>
       </c>
       <c r="D20">
-        <v>0.2267325650042693</v>
+        <v>0.1462129721541459</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.543836493347797</v>
+        <v>1.423162186137546</v>
       </c>
       <c r="G20">
-        <v>0.9064488077996202</v>
+        <v>1.088692334362946</v>
       </c>
       <c r="H20">
-        <v>0.8932509011509353</v>
+        <v>0.6157044061796171</v>
       </c>
       <c r="I20">
-        <v>0.6368365149284401</v>
+        <v>0.4214128172220057</v>
       </c>
       <c r="J20">
-        <v>0.2560542917338609</v>
+        <v>0.1642908752957553</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.5285924890273535</v>
+        <v>1.090415752905464</v>
       </c>
       <c r="N20">
-        <v>1.207264686032207</v>
+        <v>0.5080770985724321</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.276057487120852</v>
+        <v>3.784868571638185</v>
       </c>
       <c r="C21">
-        <v>0.3630554545006817</v>
+        <v>1.164891823773758</v>
       </c>
       <c r="D21">
-        <v>0.229115652240182</v>
+        <v>0.159235587165611</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.564407210508008</v>
+        <v>1.567201510678672</v>
       </c>
       <c r="G21">
-        <v>0.9270881229238057</v>
+        <v>1.21370052589694</v>
       </c>
       <c r="H21">
-        <v>0.8968492052668182</v>
+        <v>0.6648898966586785</v>
       </c>
       <c r="I21">
-        <v>0.6363619728183991</v>
+        <v>0.4501926497688302</v>
       </c>
       <c r="J21">
-        <v>0.2570440016753039</v>
+        <v>0.1769988938904774</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5651080230815495</v>
+        <v>1.232728003979659</v>
       </c>
       <c r="N21">
-        <v>1.189041680530046</v>
+        <v>0.4631229638394352</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.356333416819552</v>
+        <v>4.075122771664269</v>
       </c>
       <c r="C22">
-        <v>0.3876472831919386</v>
+        <v>1.255302259723635</v>
       </c>
       <c r="D22">
-        <v>0.230730632018961</v>
+        <v>0.1678927709097451</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.578720195453499</v>
+        <v>1.665241530670698</v>
       </c>
       <c r="G22">
-        <v>0.9411954579597932</v>
+        <v>1.29881536265728</v>
       </c>
       <c r="H22">
-        <v>0.8996564060733192</v>
+        <v>0.6987976942876628</v>
       </c>
       <c r="I22">
-        <v>0.6364436746487669</v>
+        <v>0.470625273039353</v>
       </c>
       <c r="J22">
-        <v>0.2578027002478649</v>
+        <v>0.1856926311434037</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5891357777906165</v>
+        <v>1.326986483655659</v>
       </c>
       <c r="N22">
-        <v>1.177594708302085</v>
+        <v>0.4351671069275724</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.31347678287085</v>
+        <v>3.919922861098883</v>
       </c>
       <c r="C23">
-        <v>0.3745197067743788</v>
+        <v>1.206939433326738</v>
       </c>
       <c r="D23">
-        <v>0.2298634446371892</v>
+        <v>0.1632580656005302</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.571001428169737</v>
+        <v>1.612534108313184</v>
       </c>
       <c r="G23">
-        <v>0.9336093207320175</v>
+        <v>1.253052871321074</v>
       </c>
       <c r="H23">
-        <v>0.8981164112804834</v>
+        <v>0.6805287707278183</v>
       </c>
       <c r="I23">
-        <v>0.6363641214246485</v>
+        <v>0.459562036945222</v>
       </c>
       <c r="J23">
-        <v>0.2573875238375507</v>
+        <v>0.1810148472964528</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5762968728316054</v>
+        <v>1.276554541251883</v>
       </c>
       <c r="N23">
-        <v>1.183661773567771</v>
+        <v>0.4499518716229787</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.151428440775021</v>
+        <v>3.337951578837249</v>
       </c>
       <c r="C24">
-        <v>0.3248553145774338</v>
+        <v>1.025993848743298</v>
       </c>
       <c r="D24">
-        <v>0.226694589440342</v>
+        <v>0.1460024130689845</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.543514907767005</v>
+        <v>1.420868532681837</v>
       </c>
       <c r="G24">
-        <v>0.9061218615332081</v>
+        <v>1.086701926152955</v>
       </c>
       <c r="H24">
-        <v>0.8931997650781511</v>
+        <v>0.6149280022171979</v>
       </c>
       <c r="I24">
-        <v>0.6368508652843303</v>
+        <v>0.4209678066405758</v>
       </c>
       <c r="J24">
-        <v>0.2560400019806295</v>
+        <v>0.164089243238962</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.5279984203667212</v>
+        <v>1.088108650791206</v>
       </c>
       <c r="N24">
-        <v>1.207570333534086</v>
+        <v>0.5088347164513998</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9772222197728411</v>
+        <v>2.719958683043103</v>
       </c>
       <c r="C25">
-        <v>0.2714019660237454</v>
+        <v>0.8345274580597959</v>
       </c>
       <c r="D25">
-        <v>0.2235251708492143</v>
+        <v>0.1279393225530043</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.517580264919218</v>
+        <v>1.228589135507235</v>
       </c>
       <c r="G25">
-        <v>0.8791058973163075</v>
+        <v>0.9198179756250795</v>
       </c>
       <c r="H25">
-        <v>0.889845893924516</v>
+        <v>0.5507605166732219</v>
       </c>
       <c r="I25">
-        <v>0.6390487628059915</v>
+        <v>0.3854289332056879</v>
       </c>
       <c r="J25">
-        <v>0.2550658592425705</v>
+        <v>0.1472904426639303</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.476604418955823</v>
+        <v>0.8892610442214846</v>
       </c>
       <c r="N25">
-        <v>1.235341628552749</v>
+        <v>0.5779526121411642</v>
       </c>
       <c r="O25">
         <v>0</v>
